--- a/Collections/СССР/Советские юбилейные монеты из недрагоценных металлов.xlsx
+++ b/Collections/СССР/Советские юбилейные монеты из недрагоценных металлов.xlsx
@@ -1,20 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21723"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AIlyushin\Desktop\Collections_new (после 31.12.17)\СССР\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_936D7A2740D928327CE11C544CDE34F5C18990C5" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="10" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -27,6 +36,9 @@
     <t>Номинал</t>
   </si>
   <si>
+    <t>Серия</t>
+  </si>
+  <si>
     <t>Наличие</t>
   </si>
   <si>
@@ -265,16 +277,13 @@
   </si>
   <si>
     <t> Тяжелая атлетика</t>
-  </si>
-  <si>
-    <t>Серия</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -641,14 +650,6 @@
   </cellStyles>
   <dxfs count="11">
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -831,6 +832,14 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FFE5DFEC"/>
           <bgColor rgb="FFE5DFEC"/>
         </patternFill>
@@ -854,7 +863,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1">
-    <tableStyle name="Обзор всего-style" pivot="0" count="3">
+    <tableStyle name="Обзор всего-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="headerRow" dxfId="10"/>
       <tableStyleElement type="firstRowStripe" dxfId="9"/>
       <tableStyleElement type="secondRowStripe" dxfId="8"/>
@@ -872,18 +881,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Таблица4" displayName="Таблица4" ref="A1:D79" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6" tableBorderDxfId="5">
-  <autoFilter ref="A1:D79">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Таблица4" displayName="Таблица4" ref="A1:D79" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
+  <autoFilter ref="A1:D79" xr:uid="{00000000-0009-0000-0100-000004000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" name="Год" dataDxfId="4"/>
-    <tableColumn id="2" name="Номинал" dataDxfId="3"/>
-    <tableColumn id="3" name="Серия" dataDxfId="2"/>
-    <tableColumn id="4" name="Наличие" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Год" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Номинал" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Серия" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Наличие" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1151,14 +1160,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="19" style="16" customWidth="1"/>
     <col min="3" max="3" width="35.7109375" style="16" customWidth="1"/>
@@ -1166,7 +1175,7 @@
     <col min="5" max="5" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="16.5" thickBot="1">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -1174,21 +1183,21 @@
         <v>1</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="31.5">
       <c r="A2" s="2">
         <v>1965</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -1198,15 +1207,15 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15.75">
       <c r="A3" s="17">
         <v>1967</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
@@ -1216,15 +1225,15 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15.75">
       <c r="A4" s="17">
         <v>1967</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="18" t="s">
         <v>6</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>5</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
@@ -1234,15 +1243,15 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15.75">
       <c r="A5" s="17">
         <v>1967</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D5" s="1">
         <v>2</v>
@@ -1252,15 +1261,15 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15.75">
       <c r="A6" s="17">
         <v>1967</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D6" s="1">
         <v>2</v>
@@ -1270,15 +1279,15 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15.75">
       <c r="A7" s="17">
         <v>1967</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
@@ -1288,15 +1297,15 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="31.5">
       <c r="A8" s="6">
         <v>1970</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
@@ -1306,15 +1315,15 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="15.75">
       <c r="A9" s="6">
         <v>1975</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
@@ -1324,15 +1333,15 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="15.75">
       <c r="A10" s="8">
         <v>1977</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
@@ -1342,15 +1351,15 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="31.5">
       <c r="A11" s="11">
         <v>1977</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
@@ -1360,33 +1369,33 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="15.75">
       <c r="A12" s="6">
         <v>1978</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D12" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12" s="22" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+        <v>Есть на обмен</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75">
       <c r="A13" s="8">
         <v>1979</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D13" s="1">
         <v>1</v>
@@ -1396,15 +1405,15 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="15.75">
       <c r="A14" s="8">
         <v>1979</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D14" s="1">
         <v>0</v>
@@ -1414,15 +1423,15 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="15.75">
       <c r="A15" s="8">
         <v>1980</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
@@ -1432,15 +1441,15 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="15.75">
       <c r="A16" s="8">
         <v>1980</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
@@ -1450,15 +1459,15 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="31.5">
       <c r="A17" s="8">
         <v>1981</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D17" s="1">
         <v>0</v>
@@ -1468,15 +1477,15 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="15.75">
       <c r="A18" s="8">
         <v>1981</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D18" s="1">
         <v>0</v>
@@ -1486,15 +1495,15 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="15.75">
       <c r="A19" s="6">
         <v>1982</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D19" s="1">
         <v>0</v>
@@ -1504,15 +1513,15 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="31.5">
       <c r="A20" s="8">
         <v>1983</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D20" s="1">
         <v>0</v>
@@ -1522,15 +1531,15 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="31.5">
       <c r="A21" s="8">
         <v>1983</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D21" s="1">
         <v>0</v>
@@ -1540,15 +1549,15 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="31.5">
       <c r="A22" s="8">
         <v>1983</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D22" s="1">
         <v>0</v>
@@ -1558,15 +1567,15 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="31.5">
       <c r="A23" s="8">
         <v>1983</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D23" s="1">
         <v>0</v>
@@ -1576,15 +1585,15 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="31.5">
       <c r="A24" s="8">
         <v>1984</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" s="1">
         <v>0</v>
@@ -1594,15 +1603,15 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="31.5">
       <c r="A25" s="8">
         <v>1984</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D25" s="1">
         <v>0</v>
@@ -1612,15 +1621,15 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="31.5">
       <c r="A26" s="8">
         <v>1984</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D26" s="1">
         <v>0</v>
@@ -1630,15 +1639,15 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="31.5">
       <c r="A27" s="8">
         <v>1985</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D27" s="1">
         <v>0</v>
@@ -1648,15 +1657,15 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="31.5">
       <c r="A28" s="8">
         <v>1985</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D28" s="1">
         <v>0</v>
@@ -1666,15 +1675,15 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="31.5">
       <c r="A29" s="8">
         <v>1985</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D29" s="1">
         <v>0</v>
@@ -1684,15 +1693,15 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="31.5">
       <c r="A30" s="8">
         <v>1985</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D30" s="1">
         <v>0</v>
@@ -1702,15 +1711,15 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="31.5">
       <c r="A31" s="8">
         <v>1985</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D31" s="1">
         <v>0</v>
@@ -1720,15 +1729,15 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="15.75">
       <c r="A32" s="8">
         <v>1986</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D32" s="1">
         <v>0</v>
@@ -1738,15 +1747,15 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="31.5">
       <c r="A33" s="8">
         <v>1986</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D33" s="1">
         <v>0</v>
@@ -1756,15 +1765,15 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="31.5">
       <c r="A34" s="8">
         <v>1986</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D34" s="1">
         <v>0</v>
@@ -1774,15 +1783,15 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="31.5">
       <c r="A35" s="8">
         <v>1987</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D35" s="1">
         <v>1</v>
@@ -1792,15 +1801,15 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="31.5">
       <c r="A36" s="8">
         <v>1987</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D36" s="1">
         <v>0</v>
@@ -1810,15 +1819,15 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="31.5">
       <c r="A37" s="8">
         <v>1987</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D37" s="23">
         <v>1</v>
@@ -1828,15 +1837,15 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="15.75">
       <c r="A38" s="8">
         <v>1987</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D38" s="1">
         <v>0</v>
@@ -1846,16 +1855,16 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="15.75">
       <c r="A39" s="8">
         <v>1987</v>
       </c>
       <c r="B39" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C39" s="7" t="s">
-        <v>40</v>
-      </c>
       <c r="D39" s="1">
         <v>0</v>
       </c>
@@ -1864,15 +1873,15 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="15.75">
       <c r="A40" s="8">
         <v>1987</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D40" s="1">
         <v>0</v>
@@ -1882,15 +1891,15 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="31.5">
       <c r="A41" s="8">
         <v>1988</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D41" s="1">
         <v>0</v>
@@ -1900,15 +1909,15 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="31.5">
       <c r="A42" s="8">
         <v>1988</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D42" s="1">
         <v>0</v>
@@ -1918,15 +1927,15 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="15.75">
       <c r="A43" s="8">
         <v>1988</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D43" s="1">
         <v>0</v>
@@ -1936,15 +1945,15 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="31.5">
       <c r="A44" s="8">
         <v>1988</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D44" s="1">
         <v>0</v>
@@ -1954,15 +1963,15 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="15.75">
       <c r="A45" s="8">
         <v>1988</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D45" s="1">
         <v>0</v>
@@ -1972,15 +1981,15 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="31.5">
       <c r="A46" s="8">
         <v>1989</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D46" s="1">
         <v>0</v>
@@ -1990,15 +1999,15 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="31.5">
       <c r="A47" s="8">
         <v>1989</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D47" s="1">
         <v>0</v>
@@ -2008,15 +2017,15 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="31.5">
       <c r="A48" s="8">
         <v>1989</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D48" s="1">
         <v>0</v>
@@ -2026,15 +2035,15 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" ht="15.75">
       <c r="A49" s="8">
         <v>1989</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D49" s="1">
         <v>0</v>
@@ -2044,15 +2053,15 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" ht="31.5">
       <c r="A50" s="8">
         <v>1989</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D50" s="1">
         <v>0</v>
@@ -2062,15 +2071,15 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" ht="31.5">
       <c r="A51" s="8">
         <v>1989</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D51" s="1">
         <v>0</v>
@@ -2080,15 +2089,15 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" ht="15.75">
       <c r="A52" s="8">
         <v>1989</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D52" s="1">
         <v>0</v>
@@ -2098,15 +2107,15 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" ht="15.75">
       <c r="A53" s="8">
         <v>1989</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D53" s="1">
         <v>0</v>
@@ -2116,15 +2125,15 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" ht="15.75">
       <c r="A54" s="8">
         <v>1989</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D54" s="1">
         <v>0</v>
@@ -2134,15 +2143,15 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" ht="31.5">
       <c r="A55" s="8">
         <v>1990</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D55" s="1">
         <v>0</v>
@@ -2152,15 +2161,15 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" ht="31.5">
       <c r="A56" s="8">
         <v>1990</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D56" s="1">
         <v>0</v>
@@ -2170,15 +2179,15 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" ht="31.5">
       <c r="A57" s="8">
         <v>1990</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D57" s="1">
         <v>0</v>
@@ -2188,15 +2197,15 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" ht="31.5">
       <c r="A58" s="8">
         <v>1990</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D58" s="1">
         <v>0</v>
@@ -2206,15 +2215,15 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" ht="31.5">
       <c r="A59" s="8">
         <v>1990</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D59" s="1">
         <v>0</v>
@@ -2224,15 +2233,15 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" ht="31.5">
       <c r="A60" s="8">
         <v>1990</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D60" s="1">
         <v>0</v>
@@ -2242,15 +2251,15 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" ht="15.75">
       <c r="A61" s="8">
         <v>1990</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D61" s="1">
         <v>0</v>
@@ -2260,15 +2269,15 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" ht="15.75">
       <c r="A62" s="8">
         <v>1990</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D62" s="1">
         <v>0</v>
@@ -2278,15 +2287,15 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" ht="15.75">
       <c r="A63" s="8">
         <v>1990</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D63" s="1">
         <v>0</v>
@@ -2296,15 +2305,15 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" ht="31.5">
       <c r="A64" s="8">
         <v>1991</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D64" s="1">
         <v>0</v>
@@ -2314,15 +2323,15 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" ht="31.5">
       <c r="A65" s="8">
         <v>1991</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D65" s="1">
         <v>0</v>
@@ -2332,15 +2341,15 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" ht="31.5">
       <c r="A66" s="8">
         <v>1991</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D66" s="1">
         <v>0</v>
@@ -2350,15 +2359,15 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" ht="31.5">
       <c r="A67" s="8">
         <v>1991</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D67" s="1">
         <v>0</v>
@@ -2368,15 +2377,15 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" ht="31.5">
       <c r="A68" s="8">
         <v>1991</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D68" s="1">
         <v>0</v>
@@ -2386,15 +2395,15 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" ht="31.5">
       <c r="A69" s="8">
         <v>1991</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D69" s="1">
         <v>0</v>
@@ -2404,15 +2413,15 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" ht="15.75">
       <c r="A70" s="8">
         <v>1991</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D70" s="1">
         <v>0</v>
@@ -2422,15 +2431,15 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" ht="15.75">
       <c r="A71" s="8">
         <v>1991</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D71" s="23">
         <v>1</v>
@@ -2440,15 +2449,15 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" ht="31.5">
       <c r="A72" s="8">
         <v>1991</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D72" s="1">
         <v>0</v>
@@ -2458,15 +2467,15 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" ht="31.5">
       <c r="A73" s="8">
         <v>1991</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D73" s="1">
         <v>0</v>
@@ -2476,15 +2485,15 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" ht="15.75">
       <c r="A74" s="8">
         <v>1991</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D74" s="1">
         <v>0</v>
@@ -2494,15 +2503,15 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" ht="15.75">
       <c r="A75" s="8">
         <v>1991</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D75" s="1">
         <v>0</v>
@@ -2512,15 +2521,15 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" ht="15.75">
       <c r="A76" s="8">
         <v>1991</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D76" s="1">
         <v>0</v>
@@ -2530,15 +2539,15 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" ht="15.75">
       <c r="A77" s="8">
         <v>1991</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D77" s="1">
         <v>0</v>
@@ -2548,15 +2557,15 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" ht="15.75">
       <c r="A78" s="8">
         <v>1991</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D78" s="1">
         <v>0</v>
@@ -2566,15 +2575,15 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" ht="15.75">
       <c r="A79" s="8">
         <v>1991</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D79" s="1">
         <v>0</v>
@@ -2586,7 +2595,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2:D79">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D2))))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Collections/СССР/Советские юбилейные монеты из недрагоценных металлов.xlsx
+++ b/Collections/СССР/Советские юбилейные монеты из недрагоценных металлов.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21723"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AIlyushin\Desktop\Collections_new (после 31.12.17)\СССР\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dart_Alexator\Documents\CoinCollection\Collections\СССР\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_936D7A2740D928327CE11C544CDE34F5C18990C5" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="10" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -27,6 +26,56 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Пользователь Windows</author>
+  </authors>
+  <commentList>
+    <comment ref="D61" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>1 монета proof (Мельхиор)</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D62" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">1 монета proof (Мельхиор)
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="83">
   <si>
@@ -282,8 +331,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -324,6 +373,35 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -334,13 +412,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
+        <fgColor theme="4" tint="-0.249977111117893"/>
         <bgColor rgb="FF8064A2"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
+        <fgColor theme="4" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -629,26 +707,74 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="11">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -782,54 +908,6 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
-      <border outline="0">
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FF9BE5FF"/>
@@ -863,7 +941,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1">
-    <tableStyle name="Обзор всего-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="Обзор всего-style" pivot="0" count="3">
       <tableStyleElement type="headerRow" dxfId="10"/>
       <tableStyleElement type="firstRowStripe" dxfId="9"/>
       <tableStyleElement type="secondRowStripe" dxfId="8"/>
@@ -881,18 +959,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Таблица4" displayName="Таблица4" ref="A1:D79" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
-  <autoFilter ref="A1:D79" xr:uid="{00000000-0009-0000-0100-000004000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Таблица4" displayName="Таблица4" ref="A1:D79" totalsRowShown="0" headerRowDxfId="0" dataDxfId="2" tableBorderDxfId="1">
+  <autoFilter ref="A1:D79">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Год" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Номинал" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Серия" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Наличие" dataDxfId="0"/>
+    <tableColumn id="1" name="Год" dataDxfId="6"/>
+    <tableColumn id="2" name="Номинал" dataDxfId="5"/>
+    <tableColumn id="3" name="Серия" dataDxfId="4"/>
+    <tableColumn id="4" name="Наличие" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1160,36 +1238,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="19" style="16" customWidth="1"/>
     <col min="3" max="3" width="35.7109375" style="16" customWidth="1"/>
-    <col min="4" max="4" width="19" style="16" customWidth="1"/>
+    <col min="4" max="4" width="6.42578125" style="16" customWidth="1"/>
     <col min="5" max="5" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" thickBot="1">
+    <row r="1" spans="1:5" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="31.5">
+    <row r="2" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1965</v>
       </c>
@@ -1202,12 +1280,12 @@
       <c r="D2" s="1">
         <v>1</v>
       </c>
-      <c r="E2" s="22" t="str">
+      <c r="E2" s="19" t="str">
         <f>IF(D2&gt;1,"Есть на обмен","")</f>
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75">
+    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="17">
         <v>1967</v>
       </c>
@@ -1220,12 +1298,12 @@
       <c r="D3" s="1">
         <v>1</v>
       </c>
-      <c r="E3" s="22" t="str">
+      <c r="E3" s="19" t="str">
         <f t="shared" ref="E3:E66" si="0">IF(D3&gt;1,"Есть на обмен","")</f>
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75">
+    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="17">
         <v>1967</v>
       </c>
@@ -1238,12 +1316,12 @@
       <c r="D4" s="1">
         <v>1</v>
       </c>
-      <c r="E4" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.75">
+      <c r="E4" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="17">
         <v>1967</v>
       </c>
@@ -1256,12 +1334,12 @@
       <c r="D5" s="1">
         <v>2</v>
       </c>
-      <c r="E5" s="22" t="str">
+      <c r="E5" s="19" t="str">
         <f t="shared" si="0"/>
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75">
+    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="17">
         <v>1967</v>
       </c>
@@ -1274,12 +1352,12 @@
       <c r="D6" s="1">
         <v>2</v>
       </c>
-      <c r="E6" s="22" t="str">
+      <c r="E6" s="19" t="str">
         <f t="shared" si="0"/>
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75">
+    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="17">
         <v>1967</v>
       </c>
@@ -1292,12 +1370,12 @@
       <c r="D7" s="1">
         <v>1</v>
       </c>
-      <c r="E7" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="31.5">
+      <c r="E7" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>1970</v>
       </c>
@@ -1310,12 +1388,12 @@
       <c r="D8" s="1">
         <v>1</v>
       </c>
-      <c r="E8" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.75">
+      <c r="E8" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>1975</v>
       </c>
@@ -1328,12 +1406,12 @@
       <c r="D9" s="1">
         <v>1</v>
       </c>
-      <c r="E9" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.75">
+      <c r="E9" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>1977</v>
       </c>
@@ -1346,12 +1424,12 @@
       <c r="D10" s="1">
         <v>0</v>
       </c>
-      <c r="E10" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="31.5">
+      <c r="E10" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>1977</v>
       </c>
@@ -1364,12 +1442,12 @@
       <c r="D11" s="1">
         <v>1</v>
       </c>
-      <c r="E11" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15.75">
+      <c r="E11" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>1978</v>
       </c>
@@ -1382,12 +1460,12 @@
       <c r="D12" s="1">
         <v>2</v>
       </c>
-      <c r="E12" s="22" t="str">
+      <c r="E12" s="19" t="str">
         <f t="shared" si="0"/>
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75">
+    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>1979</v>
       </c>
@@ -1400,12 +1478,12 @@
       <c r="D13" s="1">
         <v>1</v>
       </c>
-      <c r="E13" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15.75">
+      <c r="E13" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>1979</v>
       </c>
@@ -1418,12 +1496,12 @@
       <c r="D14" s="1">
         <v>0</v>
       </c>
-      <c r="E14" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15.75">
+      <c r="E14" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>1980</v>
       </c>
@@ -1436,12 +1514,12 @@
       <c r="D15" s="1">
         <v>0</v>
       </c>
-      <c r="E15" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15.75">
+      <c r="E15" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>1980</v>
       </c>
@@ -1454,12 +1532,12 @@
       <c r="D16" s="1">
         <v>1</v>
       </c>
-      <c r="E16" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="31.5">
+      <c r="E16" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>1981</v>
       </c>
@@ -1472,12 +1550,12 @@
       <c r="D17" s="1">
         <v>0</v>
       </c>
-      <c r="E17" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="15.75">
+      <c r="E17" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>1981</v>
       </c>
@@ -1490,12 +1568,12 @@
       <c r="D18" s="1">
         <v>0</v>
       </c>
-      <c r="E18" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15.75">
+      <c r="E18" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>1982</v>
       </c>
@@ -1508,12 +1586,12 @@
       <c r="D19" s="1">
         <v>0</v>
       </c>
-      <c r="E19" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="31.5">
+      <c r="E19" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>1983</v>
       </c>
@@ -1526,12 +1604,12 @@
       <c r="D20" s="1">
         <v>0</v>
       </c>
-      <c r="E20" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="31.5">
+      <c r="E20" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>1983</v>
       </c>
@@ -1544,12 +1622,12 @@
       <c r="D21" s="1">
         <v>0</v>
       </c>
-      <c r="E21" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="31.5">
+      <c r="E21" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>1983</v>
       </c>
@@ -1562,12 +1640,12 @@
       <c r="D22" s="1">
         <v>0</v>
       </c>
-      <c r="E22" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="31.5">
+      <c r="E22" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>1983</v>
       </c>
@@ -1580,12 +1658,12 @@
       <c r="D23" s="1">
         <v>0</v>
       </c>
-      <c r="E23" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="31.5">
+      <c r="E23" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>1984</v>
       </c>
@@ -1598,12 +1676,12 @@
       <c r="D24" s="1">
         <v>0</v>
       </c>
-      <c r="E24" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="31.5">
+      <c r="E24" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>1984</v>
       </c>
@@ -1616,12 +1694,12 @@
       <c r="D25" s="1">
         <v>0</v>
       </c>
-      <c r="E25" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="31.5">
+      <c r="E25" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>1984</v>
       </c>
@@ -1634,12 +1712,12 @@
       <c r="D26" s="1">
         <v>0</v>
       </c>
-      <c r="E26" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="31.5">
+      <c r="E26" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>1985</v>
       </c>
@@ -1652,12 +1730,12 @@
       <c r="D27" s="1">
         <v>0</v>
       </c>
-      <c r="E27" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="31.5">
+      <c r="E27" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>1985</v>
       </c>
@@ -1670,12 +1748,12 @@
       <c r="D28" s="1">
         <v>0</v>
       </c>
-      <c r="E28" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="31.5">
+      <c r="E28" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <v>1985</v>
       </c>
@@ -1688,12 +1766,12 @@
       <c r="D29" s="1">
         <v>0</v>
       </c>
-      <c r="E29" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="31.5">
+      <c r="E29" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
         <v>1985</v>
       </c>
@@ -1706,12 +1784,12 @@
       <c r="D30" s="1">
         <v>0</v>
       </c>
-      <c r="E30" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="31.5">
+      <c r="E30" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
         <v>1985</v>
       </c>
@@ -1724,12 +1802,12 @@
       <c r="D31" s="1">
         <v>0</v>
       </c>
-      <c r="E31" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="15.75">
+      <c r="E31" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
         <v>1986</v>
       </c>
@@ -1742,12 +1820,12 @@
       <c r="D32" s="1">
         <v>0</v>
       </c>
-      <c r="E32" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="31.5">
+      <c r="E32" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
         <v>1986</v>
       </c>
@@ -1760,12 +1838,12 @@
       <c r="D33" s="1">
         <v>0</v>
       </c>
-      <c r="E33" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="31.5">
+      <c r="E33" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
         <v>1986</v>
       </c>
@@ -1778,12 +1856,12 @@
       <c r="D34" s="1">
         <v>0</v>
       </c>
-      <c r="E34" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="31.5">
+      <c r="E34" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A35" s="8">
         <v>1987</v>
       </c>
@@ -1796,12 +1874,12 @@
       <c r="D35" s="1">
         <v>1</v>
       </c>
-      <c r="E35" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="31.5">
+      <c r="E35" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
         <v>1987</v>
       </c>
@@ -1814,12 +1892,12 @@
       <c r="D36" s="1">
         <v>0</v>
       </c>
-      <c r="E36" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="31.5">
+      <c r="E36" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A37" s="8">
         <v>1987</v>
       </c>
@@ -1829,15 +1907,15 @@
       <c r="C37" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D37" s="23">
+      <c r="D37" s="20">
         <v>1</v>
       </c>
-      <c r="E37" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="15.75">
+      <c r="E37" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="8">
         <v>1987</v>
       </c>
@@ -1850,12 +1928,12 @@
       <c r="D38" s="1">
         <v>0</v>
       </c>
-      <c r="E38" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="15.75">
+      <c r="E38" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="8">
         <v>1987</v>
       </c>
@@ -1868,12 +1946,12 @@
       <c r="D39" s="1">
         <v>0</v>
       </c>
-      <c r="E39" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="15.75">
+      <c r="E39" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="8">
         <v>1987</v>
       </c>
@@ -1886,12 +1964,12 @@
       <c r="D40" s="1">
         <v>0</v>
       </c>
-      <c r="E40" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="31.5">
+      <c r="E40" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A41" s="8">
         <v>1988</v>
       </c>
@@ -1904,12 +1982,12 @@
       <c r="D41" s="1">
         <v>0</v>
       </c>
-      <c r="E41" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="31.5">
+      <c r="E41" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A42" s="8">
         <v>1988</v>
       </c>
@@ -1922,12 +2000,12 @@
       <c r="D42" s="1">
         <v>0</v>
       </c>
-      <c r="E42" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="15.75">
+      <c r="E42" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="8">
         <v>1988</v>
       </c>
@@ -1940,12 +2018,12 @@
       <c r="D43" s="1">
         <v>0</v>
       </c>
-      <c r="E43" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="31.5">
+      <c r="E43" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A44" s="8">
         <v>1988</v>
       </c>
@@ -1958,12 +2036,12 @@
       <c r="D44" s="1">
         <v>0</v>
       </c>
-      <c r="E44" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="15.75">
+      <c r="E44" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="8">
         <v>1988</v>
       </c>
@@ -1976,12 +2054,12 @@
       <c r="D45" s="1">
         <v>0</v>
       </c>
-      <c r="E45" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="31.5">
+      <c r="E45" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A46" s="8">
         <v>1989</v>
       </c>
@@ -1994,12 +2072,12 @@
       <c r="D46" s="1">
         <v>0</v>
       </c>
-      <c r="E46" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="31.5">
+      <c r="E46" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A47" s="8">
         <v>1989</v>
       </c>
@@ -2012,12 +2090,12 @@
       <c r="D47" s="1">
         <v>0</v>
       </c>
-      <c r="E47" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="31.5">
+      <c r="E47" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A48" s="8">
         <v>1989</v>
       </c>
@@ -2030,12 +2108,12 @@
       <c r="D48" s="1">
         <v>0</v>
       </c>
-      <c r="E48" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="15.75">
+      <c r="E48" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="8">
         <v>1989</v>
       </c>
@@ -2048,12 +2126,12 @@
       <c r="D49" s="1">
         <v>0</v>
       </c>
-      <c r="E49" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="31.5">
+      <c r="E49" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A50" s="8">
         <v>1989</v>
       </c>
@@ -2066,12 +2144,12 @@
       <c r="D50" s="1">
         <v>0</v>
       </c>
-      <c r="E50" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="31.5">
+      <c r="E50" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A51" s="8">
         <v>1989</v>
       </c>
@@ -2084,12 +2162,12 @@
       <c r="D51" s="1">
         <v>0</v>
       </c>
-      <c r="E51" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="15.75">
+      <c r="E51" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="8">
         <v>1989</v>
       </c>
@@ -2102,12 +2180,12 @@
       <c r="D52" s="1">
         <v>0</v>
       </c>
-      <c r="E52" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="15.75">
+      <c r="E52" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="8">
         <v>1989</v>
       </c>
@@ -2120,12 +2198,12 @@
       <c r="D53" s="1">
         <v>0</v>
       </c>
-      <c r="E53" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="15.75">
+      <c r="E53" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="8">
         <v>1989</v>
       </c>
@@ -2138,12 +2216,12 @@
       <c r="D54" s="1">
         <v>0</v>
       </c>
-      <c r="E54" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="31.5">
+      <c r="E54" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A55" s="8">
         <v>1990</v>
       </c>
@@ -2156,12 +2234,12 @@
       <c r="D55" s="1">
         <v>0</v>
       </c>
-      <c r="E55" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="31.5">
+      <c r="E55" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A56" s="8">
         <v>1990</v>
       </c>
@@ -2174,12 +2252,12 @@
       <c r="D56" s="1">
         <v>0</v>
       </c>
-      <c r="E56" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="31.5">
+      <c r="E56" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A57" s="8">
         <v>1990</v>
       </c>
@@ -2192,12 +2270,12 @@
       <c r="D57" s="1">
         <v>0</v>
       </c>
-      <c r="E57" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="31.5">
+      <c r="E57" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A58" s="8">
         <v>1990</v>
       </c>
@@ -2210,12 +2288,12 @@
       <c r="D58" s="1">
         <v>0</v>
       </c>
-      <c r="E58" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="31.5">
+      <c r="E58" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A59" s="8">
         <v>1990</v>
       </c>
@@ -2228,12 +2306,12 @@
       <c r="D59" s="1">
         <v>0</v>
       </c>
-      <c r="E59" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="31.5">
+      <c r="E59" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A60" s="8">
         <v>1990</v>
       </c>
@@ -2246,12 +2324,12 @@
       <c r="D60" s="1">
         <v>0</v>
       </c>
-      <c r="E60" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="15.75">
+      <c r="E60" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="8">
         <v>1990</v>
       </c>
@@ -2262,14 +2340,14 @@
         <v>64</v>
       </c>
       <c r="D61" s="1">
-        <v>0</v>
-      </c>
-      <c r="E61" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="15.75">
+        <v>1</v>
+      </c>
+      <c r="E61" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="8">
         <v>1990</v>
       </c>
@@ -2280,14 +2358,14 @@
         <v>65</v>
       </c>
       <c r="D62" s="1">
-        <v>0</v>
-      </c>
-      <c r="E62" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="15.75">
+        <v>1</v>
+      </c>
+      <c r="E62" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="8">
         <v>1990</v>
       </c>
@@ -2300,12 +2378,12 @@
       <c r="D63" s="1">
         <v>0</v>
       </c>
-      <c r="E63" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="31.5">
+      <c r="E63" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A64" s="8">
         <v>1991</v>
       </c>
@@ -2318,12 +2396,12 @@
       <c r="D64" s="1">
         <v>0</v>
       </c>
-      <c r="E64" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="31.5">
+      <c r="E64" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A65" s="8">
         <v>1991</v>
       </c>
@@ -2336,12 +2414,12 @@
       <c r="D65" s="1">
         <v>0</v>
       </c>
-      <c r="E65" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="31.5">
+      <c r="E65" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A66" s="8">
         <v>1991</v>
       </c>
@@ -2354,12 +2432,12 @@
       <c r="D66" s="1">
         <v>0</v>
       </c>
-      <c r="E66" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="31.5">
+      <c r="E66" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A67" s="8">
         <v>1991</v>
       </c>
@@ -2372,12 +2450,12 @@
       <c r="D67" s="1">
         <v>0</v>
       </c>
-      <c r="E67" s="22" t="str">
+      <c r="E67" s="19" t="str">
         <f t="shared" ref="E67:E79" si="1">IF(D67&gt;1,"Есть на обмен","")</f>
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="31.5">
+    <row r="68" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A68" s="8">
         <v>1991</v>
       </c>
@@ -2390,12 +2468,12 @@
       <c r="D68" s="1">
         <v>0</v>
       </c>
-      <c r="E68" s="22" t="str">
+      <c r="E68" s="19" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="31.5">
+    <row r="69" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A69" s="8">
         <v>1991</v>
       </c>
@@ -2408,12 +2486,12 @@
       <c r="D69" s="1">
         <v>0</v>
       </c>
-      <c r="E69" s="22" t="str">
+      <c r="E69" s="19" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="15.75">
+    <row r="70" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="8">
         <v>1991</v>
       </c>
@@ -2426,12 +2504,12 @@
       <c r="D70" s="1">
         <v>0</v>
       </c>
-      <c r="E70" s="22" t="str">
+      <c r="E70" s="19" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="15.75">
+    <row r="71" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="8">
         <v>1991</v>
       </c>
@@ -2441,15 +2519,15 @@
       <c r="C71" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="D71" s="23">
+      <c r="D71" s="20">
         <v>1</v>
       </c>
-      <c r="E71" s="22" t="str">
+      <c r="E71" s="19" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="31.5">
+    <row r="72" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A72" s="8">
         <v>1991</v>
       </c>
@@ -2462,12 +2540,12 @@
       <c r="D72" s="1">
         <v>0</v>
       </c>
-      <c r="E72" s="22" t="str">
+      <c r="E72" s="19" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="31.5">
+    <row r="73" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A73" s="8">
         <v>1991</v>
       </c>
@@ -2480,12 +2558,12 @@
       <c r="D73" s="1">
         <v>0</v>
       </c>
-      <c r="E73" s="22" t="str">
+      <c r="E73" s="19" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="15.75">
+    <row r="74" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="8">
         <v>1991</v>
       </c>
@@ -2498,12 +2576,12 @@
       <c r="D74" s="1">
         <v>0</v>
       </c>
-      <c r="E74" s="22" t="str">
+      <c r="E74" s="19" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="15.75">
+    <row r="75" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="8">
         <v>1991</v>
       </c>
@@ -2516,12 +2594,12 @@
       <c r="D75" s="1">
         <v>0</v>
       </c>
-      <c r="E75" s="22" t="str">
+      <c r="E75" s="19" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="15.75">
+    <row r="76" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="8">
         <v>1991</v>
       </c>
@@ -2534,12 +2612,12 @@
       <c r="D76" s="1">
         <v>0</v>
       </c>
-      <c r="E76" s="22" t="str">
+      <c r="E76" s="19" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="15.75">
+    <row r="77" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="8">
         <v>1991</v>
       </c>
@@ -2552,12 +2630,12 @@
       <c r="D77" s="1">
         <v>0</v>
       </c>
-      <c r="E77" s="22" t="str">
+      <c r="E77" s="19" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="15.75">
+    <row r="78" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="8">
         <v>1991</v>
       </c>
@@ -2570,12 +2648,12 @@
       <c r="D78" s="1">
         <v>0</v>
       </c>
-      <c r="E78" s="22" t="str">
+      <c r="E78" s="19" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="15.75">
+    <row r="79" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="8">
         <v>1991</v>
       </c>
@@ -2588,7 +2666,7 @@
       <c r="D79" s="1">
         <v>0</v>
       </c>
-      <c r="E79" s="22" t="str">
+      <c r="E79" s="19" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -2613,8 +2691,9 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Collections/СССР/Советские юбилейные монеты из недрагоценных металлов.xlsx
+++ b/Collections/СССР/Советские юбилейные монеты из недрагоценных металлов.xlsx
@@ -57,6 +57,22 @@
       </text>
     </comment>
     <comment ref="D62" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">1 монета proof (Мельхиор)
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D64" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -729,54 +745,6 @@
   <dxfs count="11">
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -908,6 +876,54 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <border outline="0">
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FF9BE5FF"/>
@@ -959,7 +975,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Таблица4" displayName="Таблица4" ref="A1:D79" totalsRowShown="0" headerRowDxfId="0" dataDxfId="2" tableBorderDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Таблица4" displayName="Таблица4" ref="A1:D79" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
   <autoFilter ref="A1:D79">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -967,10 +983,10 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" name="Год" dataDxfId="6"/>
-    <tableColumn id="2" name="Номинал" dataDxfId="5"/>
-    <tableColumn id="3" name="Серия" dataDxfId="4"/>
-    <tableColumn id="4" name="Наличие" dataDxfId="3"/>
+    <tableColumn id="1" name="Год" dataDxfId="3"/>
+    <tableColumn id="2" name="Номинал" dataDxfId="2"/>
+    <tableColumn id="3" name="Серия" dataDxfId="1"/>
+    <tableColumn id="4" name="Наличие" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1242,7 +1258,7 @@
   <dimension ref="A1:E79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2394,7 +2410,7 @@
         <v>67</v>
       </c>
       <c r="D64" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E64" s="19" t="str">
         <f t="shared" si="0"/>
